--- a/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.4.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/11/UC3.4.1_TC1.xlsx
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.2018785171297541</v>
+        <v>0.1879823945296794</v>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="7" t="inlineStr">
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3396793618525686</v>
+        <v>0.3381137531680278</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.33967936185256864, 'ngram_match_score': 0.2018785171297541, 'weighted_ngram_match_score': 0.21130059764541356, 'syntax_match_score': 0.5584415584415584, 'dataflow_match_score': 0.3870967741935484}</t>
+          <t>{'codebleu': 0.3381137531680278, 'ngram_match_score': 0.18798239452967938, 'weighted_ngram_match_score': 0.1974289091632388, 'syntax_match_score': 0.5584415584415584, 'dataflow_match_score': 0.40860215053763443}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.9154994355453789</v>
+        <v>0.9048691301042167</v>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
